--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H2">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I2">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J2">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N2">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O2">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P2">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q2">
-        <v>3.890257761806001</v>
+        <v>19.511457120246</v>
       </c>
       <c r="R2">
-        <v>15.561031047224</v>
+        <v>78.045828480984</v>
       </c>
       <c r="S2">
-        <v>0.00487229431803742</v>
+        <v>0.02545248927256195</v>
       </c>
       <c r="T2">
-        <v>0.002890426831036937</v>
+        <v>0.01583438158934754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H3">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I3">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J3">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>68.241472</v>
       </c>
       <c r="O3">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P3">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q3">
-        <v>34.66732744356267</v>
+        <v>64.43868185206399</v>
       </c>
       <c r="R3">
-        <v>208.003964661376</v>
+        <v>386.632091112384</v>
       </c>
       <c r="S3">
-        <v>0.04341856834864309</v>
+        <v>0.08405957835285509</v>
       </c>
       <c r="T3">
-        <v>0.03863627278904211</v>
+        <v>0.07844211772128896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H4">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I4">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J4">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N4">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O4">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P4">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q4">
-        <v>0.429282392604</v>
+        <v>0.6439687693139999</v>
       </c>
       <c r="R4">
-        <v>2.575694355624</v>
+        <v>3.863812615884</v>
       </c>
       <c r="S4">
-        <v>0.0005376482203449125</v>
+        <v>0.0008400504427637976</v>
       </c>
       <c r="T4">
-        <v>0.0004784294852604978</v>
+        <v>0.0007839122800080116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H5">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I5">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J5">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N5">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O5">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P5">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q5">
-        <v>27.5747771529035</v>
+        <v>35.25718672188375</v>
       </c>
       <c r="R5">
-        <v>110.299108611614</v>
+        <v>141.028746887535</v>
       </c>
       <c r="S5">
-        <v>0.03453561133205438</v>
+        <v>0.04599262685964611</v>
       </c>
       <c r="T5">
-        <v>0.0204878135647278</v>
+        <v>0.02861271430834817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H6">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I6">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J6">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N6">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O6">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P6">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q6">
-        <v>4.846278105448</v>
+        <v>2.423861991148</v>
       </c>
       <c r="R6">
-        <v>29.077668632688</v>
+        <v>14.543171946888</v>
       </c>
       <c r="S6">
-        <v>0.006069647494473904</v>
+        <v>0.00316190230937951</v>
       </c>
       <c r="T6">
-        <v>0.005401112133563668</v>
+        <v>0.002950601442876958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H7">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I7">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J7">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N7">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O7">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P7">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q7">
-        <v>0.693267075839</v>
+        <v>1.3911703483405</v>
       </c>
       <c r="R7">
-        <v>4.159602455034</v>
+        <v>8.347022090043</v>
       </c>
       <c r="S7">
-        <v>0.0008682718321792329</v>
+        <v>0.001814766993014636</v>
       </c>
       <c r="T7">
-        <v>0.0007726368841492818</v>
+        <v>0.001693491317612927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J8">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N8">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O8">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P8">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q8">
-        <v>21.70455776525001</v>
+        <v>58.56470795350001</v>
       </c>
       <c r="R8">
-        <v>130.2273465915</v>
+        <v>351.3882477210001</v>
       </c>
       <c r="S8">
-        <v>0.02718354411200997</v>
+        <v>0.07639704158181236</v>
       </c>
       <c r="T8">
-        <v>0.02418943934887708</v>
+        <v>0.07129164631498758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J9">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>68.241472</v>
       </c>
       <c r="O9">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P9">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q9">
         <v>193.4162354106667</v>
@@ -1013,10 +1013,10 @@
         <v>1740.746118696</v>
       </c>
       <c r="S9">
-        <v>0.2422412298896338</v>
+        <v>0.2523094316631562</v>
       </c>
       <c r="T9">
-        <v>0.3233397113747111</v>
+        <v>0.353172473533599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J10">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N10">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O10">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P10">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q10">
-        <v>2.3950558185</v>
+        <v>1.9329075565</v>
       </c>
       <c r="R10">
-        <v>21.5555023665</v>
+        <v>17.3961680085</v>
       </c>
       <c r="S10">
-        <v>0.002999651326559566</v>
+        <v>0.002521457446436471</v>
       </c>
       <c r="T10">
-        <v>0.004003886516743797</v>
+        <v>0.003529433511056966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J11">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N11">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O11">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P11">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q11">
-        <v>153.8454211068125</v>
+        <v>105.8263783634375</v>
       </c>
       <c r="R11">
-        <v>923.0725266408751</v>
+        <v>634.958270180625</v>
       </c>
       <c r="S11">
-        <v>0.1926813638093776</v>
+        <v>0.1380493903376661</v>
       </c>
       <c r="T11">
-        <v>0.1714586642683816</v>
+        <v>0.1288239453541296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J12">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N12">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O12">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P12">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q12">
-        <v>27.038394247</v>
+        <v>7.275354616333335</v>
       </c>
       <c r="R12">
-        <v>243.345548223</v>
+        <v>65.47819154700001</v>
       </c>
       <c r="S12">
-        <v>0.03386382669855679</v>
+        <v>0.009490623082894259</v>
       </c>
       <c r="T12">
-        <v>0.04520089315820944</v>
+        <v>0.01328458792628755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J13">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N13">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O13">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P13">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q13">
-        <v>3.867881311625001</v>
+        <v>4.175674049458334</v>
       </c>
       <c r="R13">
-        <v>34.81093180462501</v>
+        <v>37.581066445125</v>
       </c>
       <c r="S13">
-        <v>0.004844269272462004</v>
+        <v>0.005447122595435023</v>
       </c>
       <c r="T13">
-        <v>0.00646605298814277</v>
+        <v>0.007624660513043621</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H14">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I14">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J14">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N14">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O14">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P14">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q14">
-        <v>0.9931208537113334</v>
+        <v>1.254435961165334</v>
       </c>
       <c r="R14">
-        <v>5.958725122268</v>
+        <v>7.526615766992001</v>
       </c>
       <c r="S14">
-        <v>0.001243819147453063</v>
+        <v>0.001636398432362392</v>
       </c>
       <c r="T14">
-        <v>0.001106819909291924</v>
+        <v>0.001527042616505625</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H15">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I15">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J15">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>68.241472</v>
       </c>
       <c r="O15">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P15">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q15">
-        <v>8.850016614492445</v>
+        <v>4.14290943557689</v>
       </c>
       <c r="R15">
-        <v>79.650149530432</v>
+        <v>37.28618492019201</v>
       </c>
       <c r="S15">
-        <v>0.01108406905287183</v>
+        <v>0.005404381503460311</v>
       </c>
       <c r="T15">
-        <v>0.01479483773280789</v>
+        <v>0.007564833272045398</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H16">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I16">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J16">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N16">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O16">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P16">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q16">
-        <v>0.109588958452</v>
+        <v>0.04140221702133334</v>
       </c>
       <c r="R16">
-        <v>0.9863006260680001</v>
+        <v>0.372619953192</v>
       </c>
       <c r="S16">
-        <v>0.0001372530285338829</v>
+        <v>5.400875383634507E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001832031427997213</v>
+        <v>7.559925548211129E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H17">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I17">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J17">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N17">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O17">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P17">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q17">
-        <v>7.039401475103834</v>
+        <v>2.266764734221667</v>
       </c>
       <c r="R17">
-        <v>42.236408850623</v>
+        <v>13.60058840533</v>
       </c>
       <c r="S17">
-        <v>0.008816391588821158</v>
+        <v>0.002956970600690396</v>
       </c>
       <c r="T17">
-        <v>0.007845318797835395</v>
+        <v>0.002759364732762406</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H18">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I18">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J18">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N18">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O18">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P18">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q18">
-        <v>1.237177622690667</v>
+        <v>0.1558356009937778</v>
       </c>
       <c r="R18">
-        <v>11.134598604216</v>
+        <v>1.402520408944</v>
       </c>
       <c r="S18">
-        <v>0.001549484345387029</v>
+        <v>0.0002032858918805017</v>
       </c>
       <c r="T18">
-        <v>0.002068226871393187</v>
+        <v>0.0002845513177873188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H19">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I19">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J19">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N19">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O19">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P19">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q19">
-        <v>0.1769800440903333</v>
+        <v>0.08944150620377779</v>
       </c>
       <c r="R19">
-        <v>1.592820396813</v>
+        <v>0.804973555834</v>
       </c>
       <c r="S19">
-        <v>0.000221655971409728</v>
+        <v>0.0001166754980493602</v>
       </c>
       <c r="T19">
-        <v>0.0002958628382656245</v>
+        <v>0.0001633176135162068</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H20">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I20">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J20">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N20">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O20">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P20">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q20">
-        <v>12.042826986374</v>
+        <v>39.218857153238</v>
       </c>
       <c r="R20">
-        <v>48.171307945496</v>
+        <v>156.875428612952</v>
       </c>
       <c r="S20">
-        <v>0.01508285596776963</v>
+        <v>0.05116058400062456</v>
       </c>
       <c r="T20">
-        <v>0.008947713075647597</v>
+        <v>0.03182777922916365</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H21">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I21">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J21">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>68.241472</v>
       </c>
       <c r="O21">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P21">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q21">
-        <v>107.3174715006507</v>
+        <v>129.5244862095253</v>
       </c>
       <c r="R21">
-        <v>643.904829003904</v>
+        <v>777.1469172571519</v>
       </c>
       <c r="S21">
-        <v>0.1344081391604298</v>
+        <v>0.1689633211638104</v>
       </c>
       <c r="T21">
-        <v>0.1196038867051264</v>
+        <v>0.1576719868100719</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H22">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I22">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J22">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N22">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O22">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P22">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q22">
-        <v>1.328902581516</v>
+        <v>1.294404565442</v>
       </c>
       <c r="R22">
-        <v>7.973415489096</v>
+        <v>7.766427392652</v>
       </c>
       <c r="S22">
-        <v>0.001664363878587784</v>
+        <v>0.001688537053548994</v>
       </c>
       <c r="T22">
-        <v>0.00148104415412756</v>
+        <v>0.001575696963114136</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H23">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I23">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J23">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N23">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O23">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P23">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q23">
-        <v>85.3615083557015</v>
+        <v>70.86844212346375</v>
       </c>
       <c r="R23">
-        <v>341.446033422806</v>
+        <v>283.473768493855</v>
       </c>
       <c r="S23">
-        <v>0.1069097261944692</v>
+        <v>0.09244713256392079</v>
       </c>
       <c r="T23">
-        <v>0.06342283961527567</v>
+        <v>0.05751277048709563</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H24">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I24">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J24">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N24">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O24">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P24">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q24">
-        <v>15.002319209992</v>
+        <v>4.872065505110666</v>
       </c>
       <c r="R24">
-        <v>90.013915259952</v>
+        <v>29.232393030664</v>
       </c>
       <c r="S24">
-        <v>0.01878942710734261</v>
+        <v>0.00635555787760073</v>
       </c>
       <c r="T24">
-        <v>0.0167198841159349</v>
+        <v>0.005930834165340407</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H25">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I25">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J25">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N25">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O25">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P25">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q25">
-        <v>2.146103410331</v>
+        <v>2.796311461063167</v>
       </c>
       <c r="R25">
-        <v>12.876620461986</v>
+        <v>16.777868766379</v>
       </c>
       <c r="S25">
-        <v>0.00268785465959001</v>
+        <v>0.003647758700276657</v>
       </c>
       <c r="T25">
-        <v>0.002391803548457235</v>
+        <v>0.003403989444068378</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H26">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I26">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J26">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N26">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O26">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P26">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q26">
-        <v>3.30564789307</v>
+        <v>1.136818097072</v>
       </c>
       <c r="R26">
-        <v>19.83388735842</v>
+        <v>6.820908582432001</v>
       </c>
       <c r="S26">
-        <v>0.00414010855654981</v>
+        <v>0.001482967173710221</v>
       </c>
       <c r="T26">
-        <v>0.003684100366522213</v>
+        <v>0.001383864728998289</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H27">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I27">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J27">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>68.241472</v>
       </c>
       <c r="O27">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P27">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q27">
-        <v>29.45768248245333</v>
+        <v>3.754463812181334</v>
       </c>
       <c r="R27">
-        <v>265.11914234208</v>
+        <v>33.790174309632</v>
       </c>
       <c r="S27">
-        <v>0.03689382754812051</v>
+        <v>0.004897658299677139</v>
       </c>
       <c r="T27">
-        <v>0.04924528973186219</v>
+        <v>0.006855542754852633</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H28">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I28">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J28">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N28">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O28">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P28">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q28">
-        <v>0.3647718283799999</v>
+        <v>0.037520280848</v>
       </c>
       <c r="R28">
-        <v>3.28294645542</v>
+        <v>0.337682527632</v>
       </c>
       <c r="S28">
-        <v>0.0004568529428165497</v>
+        <v>4.894480919091865E-05</v>
       </c>
       <c r="T28">
-        <v>0.0006097999863123708</v>
+        <v>6.851095186827682E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H29">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I29">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J29">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N29">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O29">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P29">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q29">
-        <v>23.4309677092075</v>
+        <v>2.05422935203</v>
       </c>
       <c r="R29">
-        <v>140.585806255245</v>
+        <v>12.32537611218</v>
       </c>
       <c r="S29">
-        <v>0.02934576005644715</v>
+        <v>0.002679720444439377</v>
       </c>
       <c r="T29">
-        <v>0.02611350014211376</v>
+        <v>0.002500642409607314</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H30">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I30">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J30">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N30">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O30">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P30">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q30">
-        <v>4.11800193956</v>
+        <v>0.1412242130026667</v>
       </c>
       <c r="R30">
-        <v>37.06201745604</v>
+        <v>1.271017917024</v>
       </c>
       <c r="S30">
-        <v>0.005157529058555433</v>
+        <v>0.0001842254909166445</v>
       </c>
       <c r="T30">
-        <v>0.006884187130158564</v>
+        <v>0.0002578713442699806</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H31">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I31">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J31">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N31">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O31">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P31">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q31">
-        <v>0.589086119455</v>
+        <v>0.08105533166266667</v>
       </c>
       <c r="R31">
-        <v>5.301775075095001</v>
+        <v>0.729497984964</v>
       </c>
       <c r="S31">
-        <v>0.0007377919737952935</v>
+        <v>0.0001057358221333068</v>
       </c>
       <c r="T31">
-        <v>0.0009847929023900535</v>
+        <v>0.0001480047004100232</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H32">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I32">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J32">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N32">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O32">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P32">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q32">
-        <v>1.144096059612667</v>
+        <v>1.261442982856</v>
       </c>
       <c r="R32">
-        <v>6.864576357676</v>
+        <v>7.568657897136</v>
       </c>
       <c r="S32">
-        <v>0.001432905753769891</v>
+        <v>0.001645539017984224</v>
       </c>
       <c r="T32">
-        <v>0.001275079757100551</v>
+        <v>0.001535572362995424</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H33">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I33">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J33">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>68.241472</v>
       </c>
       <c r="O33">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P33">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q33">
-        <v>10.19540481735822</v>
+        <v>4.166050876970667</v>
       </c>
       <c r="R33">
-        <v>91.758643356224</v>
+        <v>37.494457892736</v>
       </c>
       <c r="S33">
-        <v>0.01276908009783003</v>
+        <v>0.005434569268792073</v>
       </c>
       <c r="T33">
-        <v>0.01704396347076841</v>
+        <v>0.007607088877324967</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H34">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I34">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J34">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N34">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O34">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P34">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q34">
-        <v>0.126248779364</v>
+        <v>0.041633481304</v>
       </c>
       <c r="R34">
-        <v>1.136239014276</v>
+        <v>0.374701331736</v>
       </c>
       <c r="S34">
-        <v>0.0001581183685033804</v>
+        <v>5.431043564500876E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002110538641923856</v>
+        <v>7.602153739953122E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H35">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I35">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J35">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N35">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O35">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P35">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q35">
-        <v>8.109538189235167</v>
+        <v>2.279426416565</v>
       </c>
       <c r="R35">
-        <v>48.657229135411</v>
+        <v>13.67655849939</v>
       </c>
       <c r="S35">
-        <v>0.01015666808231623</v>
+        <v>0.002973487631275563</v>
       </c>
       <c r="T35">
-        <v>0.009037971853542026</v>
+        <v>0.002774777977546113</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H36">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I36">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J36">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N36">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O36">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P36">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q36">
-        <v>1.425254577901333</v>
+        <v>0.1567060666613333</v>
       </c>
       <c r="R36">
-        <v>12.827291201112</v>
+        <v>1.410354599952</v>
       </c>
       <c r="S36">
-        <v>0.001785038474787776</v>
+        <v>0.0002044214051294123</v>
       </c>
       <c r="T36">
-        <v>0.002382640748206228</v>
+        <v>0.000286140763018139</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H37">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I37">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J37">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N37">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O37">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P37">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q37">
-        <v>0.2038847239156667</v>
+        <v>0.08994110809133334</v>
       </c>
       <c r="R37">
-        <v>1.834962515241</v>
+        <v>0.809469972822</v>
       </c>
       <c r="S37">
-        <v>0.0002553523295093342</v>
+        <v>0.0001173272234230825</v>
       </c>
       <c r="T37">
-        <v>0.0003408401970218922</v>
+        <v>0.0001642298721693412</v>
       </c>
     </row>
   </sheetData>
